--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/010_要件定義/010_機能要件/システム機能一覧_B1_顧客管理システム.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/010_要件定義/010_機能要件/システム機能一覧_B1_顧客管理システム.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="-15" windowWidth="16440" windowHeight="13305" tabRatio="822" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="270" windowWidth="16440" windowHeight="12285" tabRatio="822" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -298,23 +298,6 @@
     <t>B101</t>
   </si>
   <si>
-    <t>顧客情報操作</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>顧客データの操作を社内システムに公開する</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>B010101</t>
-  </si>
-  <si>
-    <t>WEBサービス</t>
-  </si>
-  <si>
-    <t>B010102</t>
-  </si>
-  <si>
     <t>顧客詳細取得</t>
     <rPh sb="0" eb="4">
       <t>コキャクショウサイ</t>
@@ -325,9 +308,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>B010103</t>
-  </si>
-  <si>
     <t>顧客検索</t>
     <rPh sb="2" eb="4">
       <t>ケンサク</t>
@@ -335,20 +315,30 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>顧客のデータ1件を登録する。</t>
+    <t>顧客管理</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケン</t>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>指定された顧客の詳細情報を返却する。</t>
+    <t>B10101</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>B10102</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>B10103</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">指定された顧客の詳細データ1件を返却する。
+</t>
     <rPh sb="0" eb="2">
       <t>シテイ</t>
     </rPh>
@@ -358,42 +348,91 @@
     <rPh sb="8" eb="10">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
+    <rPh sb="14" eb="15">
+      <t>ケン</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="16" eb="18">
       <t>ヘンキャク</t>
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>システムで管理している顧客情報を顧客ID、顧客名をキーに検索し、検索結果を返却する。</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
+    <t>Webサービス</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>他システムから顧客データを操作できるように顧客の検索、詳細取得、登録を行う。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
     </rPh>
-    <rPh sb="11" eb="15">
-      <t>コキャクジョウホウ</t>
+    <rPh sb="7" eb="9">
+      <t>コキャク</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>コキャク</t>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
     </rPh>
     <rPh sb="21" eb="23">
       <t>コキャク</t>
     </rPh>
-    <rPh sb="23" eb="24">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
+    <rPh sb="24" eb="26">
       <t>ケンサク</t>
     </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
     <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>指定された検索条件に合致する顧客を検索し、検索結果を返却する。</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>ケンサク</t>
     </rPh>
-    <rPh sb="34" eb="36">
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガッチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
       <t>ケッカ</t>
     </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="26" eb="28">
       <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t xml:space="preserve">顧客のデータ1件を登録する。
+</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
@@ -1187,39 +1226,57 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1247,22 +1304,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,12 +1335,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1975,7 +2014,9 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2623,7 +2664,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A8" sqref="A8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5830,10 +5871,10 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP43"/>
+  <dimension ref="A1:AP25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5861,23 +5902,23 @@
       <c r="L1" s="116"/>
       <c r="M1" s="116"/>
       <c r="N1" s="117"/>
-      <c r="O1" s="177" t="s">
+      <c r="O1" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="162" t="str">
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="170"/>
       <c r="AA1" s="112" t="s">
         <v>21</v>
       </c>
@@ -5919,18 +5960,18 @@
       <c r="L2" s="116"/>
       <c r="M2" s="116"/>
       <c r="N2" s="117"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="173"/>
       <c r="AA2" s="112" t="s">
         <v>22</v>
       </c>
@@ -5972,18 +6013,18 @@
       <c r="L3" s="116"/>
       <c r="M3" s="116"/>
       <c r="N3" s="117"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="176"/>
       <c r="AA3" s="112"/>
       <c r="AB3" s="114"/>
       <c r="AC3" s="144" t="str">
@@ -6054,1679 +6095,890 @@
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="171" t="s">
+      <c r="D7" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="172"/>
-      <c r="F7" s="171" t="s">
+      <c r="E7" s="164"/>
+      <c r="F7" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="171" t="s">
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="171" t="s">
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="172"/>
-      <c r="T7" s="171" t="s">
+      <c r="S7" s="164"/>
+      <c r="T7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="175"/>
-      <c r="V7" s="175"/>
-      <c r="W7" s="175"/>
-      <c r="X7" s="175"/>
-      <c r="Y7" s="172"/>
-      <c r="Z7" s="171" t="s">
+      <c r="U7" s="163"/>
+      <c r="V7" s="163"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="163"/>
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="175"/>
-      <c r="AB7" s="175"/>
-      <c r="AC7" s="175"/>
-      <c r="AD7" s="175"/>
-      <c r="AE7" s="175"/>
-      <c r="AF7" s="175"/>
-      <c r="AG7" s="172"/>
-      <c r="AH7" s="171" t="s">
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="164"/>
+      <c r="AH7" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="AI7" s="175"/>
-      <c r="AJ7" s="172"/>
-      <c r="AK7" s="171" t="s">
+      <c r="AI7" s="163"/>
+      <c r="AJ7" s="164"/>
+      <c r="AK7" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="175"/>
-      <c r="AM7" s="175"/>
-      <c r="AN7" s="175"/>
-      <c r="AO7" s="175"/>
-      <c r="AP7" s="172"/>
+      <c r="AL7" s="163"/>
+      <c r="AM7" s="163"/>
+      <c r="AN7" s="163"/>
+      <c r="AO7" s="163"/>
+      <c r="AP7" s="164"/>
     </row>
     <row r="8" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="187"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="176"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="176"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="174"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="176"/>
-      <c r="W8" s="176"/>
-      <c r="X8" s="176"/>
-      <c r="Y8" s="174"/>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="176"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176"/>
-      <c r="AE8" s="176"/>
-      <c r="AF8" s="176"/>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="173"/>
-      <c r="AI8" s="176"/>
-      <c r="AJ8" s="174"/>
-      <c r="AK8" s="173"/>
-      <c r="AL8" s="176"/>
-      <c r="AM8" s="176"/>
-      <c r="AN8" s="176"/>
-      <c r="AO8" s="176"/>
-      <c r="AP8" s="174"/>
-    </row>
-    <row r="9" spans="1:42" s="7" customFormat="1" ht="47.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="178"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="165"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="165"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="166"/>
+      <c r="W8" s="166"/>
+      <c r="X8" s="166"/>
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="165"/>
+      <c r="AA8" s="166"/>
+      <c r="AB8" s="166"/>
+      <c r="AC8" s="166"/>
+      <c r="AD8" s="166"/>
+      <c r="AE8" s="166"/>
+      <c r="AF8" s="166"/>
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="166"/>
+      <c r="AJ8" s="167"/>
+      <c r="AK8" s="165"/>
+      <c r="AL8" s="166"/>
+      <c r="AM8" s="166"/>
+      <c r="AN8" s="166"/>
+      <c r="AO8" s="166"/>
+      <c r="AP8" s="167"/>
+    </row>
+    <row r="9" spans="1:42" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="77">
         <v>1</v>
       </c>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="157" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="158"/>
-      <c r="F9" s="160" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
+      <c r="F9" s="157" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
       <c r="J9" s="158"/>
-      <c r="K9" s="160" t="s">
+      <c r="K9" s="157" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="160"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="161" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="156"/>
+      <c r="T9" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="151" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="152"/>
-      <c r="T9" s="161" t="s">
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="161" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="155"/>
+      <c r="AB9" s="155"/>
+      <c r="AC9" s="155"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="155"/>
+      <c r="AF9" s="155"/>
+      <c r="AG9" s="156"/>
+      <c r="AH9" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="161" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA9" s="153"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="153"/>
-      <c r="AF9" s="153"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="151" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="153"/>
-      <c r="AJ9" s="152"/>
+      <c r="AI9" s="155"/>
+      <c r="AJ9" s="156"/>
       <c r="AK9" s="161"/>
-      <c r="AL9" s="153"/>
-      <c r="AM9" s="153"/>
-      <c r="AN9" s="153"/>
-      <c r="AO9" s="153"/>
-      <c r="AP9" s="152"/>
-    </row>
-    <row r="10" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL9" s="155"/>
+      <c r="AM9" s="155"/>
+      <c r="AN9" s="155"/>
+      <c r="AO9" s="155"/>
+      <c r="AP9" s="156"/>
+    </row>
+    <row r="10" spans="1:42" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="77">
         <v>2</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="151" t="s">
+      <c r="D10" s="151"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="152"/>
-      <c r="T10" s="151" t="s">
-        <v>47</v>
-      </c>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="152"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="154" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="156"/>
       <c r="Z10" s="161" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="151" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="153"/>
-      <c r="AJ10" s="152"/>
-      <c r="AK10" s="151"/>
-      <c r="AL10" s="153"/>
-      <c r="AM10" s="153"/>
-      <c r="AN10" s="153"/>
-      <c r="AO10" s="153"/>
-      <c r="AP10" s="152"/>
-    </row>
-    <row r="11" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="AA10" s="155"/>
+      <c r="AB10" s="155"/>
+      <c r="AC10" s="155"/>
+      <c r="AD10" s="155"/>
+      <c r="AE10" s="155"/>
+      <c r="AF10" s="155"/>
+      <c r="AG10" s="156"/>
+      <c r="AH10" s="161" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI10" s="155"/>
+      <c r="AJ10" s="156"/>
+      <c r="AK10" s="154"/>
+      <c r="AL10" s="155"/>
+      <c r="AM10" s="155"/>
+      <c r="AN10" s="155"/>
+      <c r="AO10" s="155"/>
+      <c r="AP10" s="156"/>
+    </row>
+    <row r="11" spans="1:42" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="78">
         <v>3</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="155"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="152"/>
       <c r="R11" s="157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S11" s="158"/>
-      <c r="T11" s="157" t="s">
+      <c r="T11" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="U11" s="159"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="159"/>
-      <c r="X11" s="159"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="160"/>
       <c r="Y11" s="158"/>
-      <c r="Z11" s="160" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA11" s="159"/>
-      <c r="AB11" s="159"/>
-      <c r="AC11" s="159"/>
-      <c r="AD11" s="159"/>
-      <c r="AE11" s="159"/>
-      <c r="AF11" s="159"/>
-      <c r="AG11" s="158"/>
-      <c r="AH11" s="157" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI11" s="159"/>
-      <c r="AJ11" s="158"/>
-      <c r="AK11" s="157"/>
-      <c r="AL11" s="159"/>
-      <c r="AM11" s="159"/>
-      <c r="AN11" s="159"/>
-      <c r="AO11" s="159"/>
-      <c r="AP11" s="158"/>
+      <c r="Z11" s="161" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="155"/>
+      <c r="AB11" s="155"/>
+      <c r="AC11" s="155"/>
+      <c r="AD11" s="155"/>
+      <c r="AE11" s="155"/>
+      <c r="AF11" s="155"/>
+      <c r="AG11" s="156"/>
+      <c r="AH11" s="161" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI11" s="155"/>
+      <c r="AJ11" s="156"/>
+      <c r="AK11" s="154"/>
+      <c r="AL11" s="155"/>
+      <c r="AM11" s="155"/>
+      <c r="AN11" s="155"/>
+      <c r="AO11" s="155"/>
+      <c r="AP11" s="156"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="151"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="152"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="153"/>
-      <c r="AB12" s="153"/>
-      <c r="AC12" s="153"/>
-      <c r="AD12" s="153"/>
-      <c r="AE12" s="153"/>
-      <c r="AF12" s="153"/>
-      <c r="AG12" s="152"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="153"/>
-      <c r="AJ12" s="152"/>
-      <c r="AK12" s="151"/>
-      <c r="AL12" s="153"/>
-      <c r="AM12" s="153"/>
-      <c r="AN12" s="153"/>
-      <c r="AO12" s="153"/>
-      <c r="AP12" s="152"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="153"/>
-      <c r="V13" s="153"/>
-      <c r="W13" s="153"/>
-      <c r="X13" s="153"/>
-      <c r="Y13" s="152"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="153"/>
-      <c r="AB13" s="153"/>
-      <c r="AC13" s="153"/>
-      <c r="AD13" s="153"/>
-      <c r="AE13" s="153"/>
-      <c r="AF13" s="153"/>
-      <c r="AG13" s="152"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="153"/>
-      <c r="AJ13" s="152"/>
-      <c r="AK13" s="151"/>
-      <c r="AL13" s="153"/>
-      <c r="AM13" s="153"/>
-      <c r="AN13" s="153"/>
-      <c r="AO13" s="153"/>
-      <c r="AP13" s="152"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="153"/>
-      <c r="AB14" s="153"/>
-      <c r="AC14" s="153"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="153"/>
-      <c r="AF14" s="153"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="153"/>
-      <c r="AJ14" s="152"/>
-      <c r="AK14" s="151"/>
-      <c r="AL14" s="153"/>
-      <c r="AM14" s="153"/>
-      <c r="AN14" s="153"/>
-      <c r="AO14" s="153"/>
-      <c r="AP14" s="152"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="152"/>
-      <c r="T15" s="151"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="153"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="153"/>
-      <c r="Y15" s="152"/>
-      <c r="Z15" s="151"/>
-      <c r="AA15" s="153"/>
-      <c r="AB15" s="153"/>
-      <c r="AC15" s="153"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="153"/>
-      <c r="AF15" s="153"/>
-      <c r="AG15" s="152"/>
-      <c r="AH15" s="151"/>
-      <c r="AI15" s="153"/>
-      <c r="AJ15" s="152"/>
-      <c r="AK15" s="151"/>
-      <c r="AL15" s="153"/>
-      <c r="AM15" s="153"/>
-      <c r="AN15" s="153"/>
-      <c r="AO15" s="153"/>
-      <c r="AP15" s="152"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="151"/>
-      <c r="S16" s="152"/>
-      <c r="T16" s="151"/>
-      <c r="U16" s="153"/>
-      <c r="V16" s="153"/>
-      <c r="W16" s="153"/>
-      <c r="X16" s="153"/>
-      <c r="Y16" s="152"/>
-      <c r="Z16" s="151"/>
-      <c r="AA16" s="153"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="153"/>
-      <c r="AD16" s="153"/>
-      <c r="AE16" s="153"/>
-      <c r="AF16" s="153"/>
-      <c r="AG16" s="152"/>
-      <c r="AH16" s="151"/>
-      <c r="AI16" s="153"/>
-      <c r="AJ16" s="152"/>
-      <c r="AK16" s="151"/>
-      <c r="AL16" s="153"/>
-      <c r="AM16" s="153"/>
-      <c r="AN16" s="153"/>
-      <c r="AO16" s="153"/>
-      <c r="AP16" s="152"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="151"/>
-      <c r="S17" s="152"/>
-      <c r="T17" s="151"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="152"/>
-      <c r="Z17" s="151"/>
-      <c r="AA17" s="153"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="153"/>
-      <c r="AF17" s="153"/>
-      <c r="AG17" s="152"/>
-      <c r="AH17" s="151"/>
-      <c r="AI17" s="153"/>
-      <c r="AJ17" s="152"/>
-      <c r="AK17" s="151"/>
-      <c r="AL17" s="153"/>
-      <c r="AM17" s="153"/>
-      <c r="AN17" s="153"/>
-      <c r="AO17" s="153"/>
-      <c r="AP17" s="152"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="152"/>
-      <c r="T18" s="151"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="152"/>
-      <c r="Z18" s="151"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="153"/>
-      <c r="AF18" s="153"/>
-      <c r="AG18" s="152"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="153"/>
-      <c r="AJ18" s="152"/>
-      <c r="AK18" s="151"/>
-      <c r="AL18" s="153"/>
-      <c r="AM18" s="153"/>
-      <c r="AN18" s="153"/>
-      <c r="AO18" s="153"/>
-      <c r="AP18" s="152"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="152"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="153"/>
-      <c r="V19" s="153"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="153"/>
-      <c r="Y19" s="152"/>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="153"/>
-      <c r="AB19" s="153"/>
-      <c r="AC19" s="153"/>
-      <c r="AD19" s="153"/>
-      <c r="AE19" s="153"/>
-      <c r="AF19" s="153"/>
-      <c r="AG19" s="152"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="153"/>
-      <c r="AJ19" s="152"/>
-      <c r="AK19" s="151"/>
-      <c r="AL19" s="153"/>
-      <c r="AM19" s="153"/>
-      <c r="AN19" s="153"/>
-      <c r="AO19" s="153"/>
-      <c r="AP19" s="152"/>
-    </row>
-    <row r="20" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="152"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="153"/>
-      <c r="V20" s="153"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="153"/>
-      <c r="Y20" s="152"/>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="153"/>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="153"/>
-      <c r="AD20" s="153"/>
-      <c r="AE20" s="153"/>
-      <c r="AF20" s="153"/>
-      <c r="AG20" s="152"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="153"/>
-      <c r="AJ20" s="152"/>
-      <c r="AK20" s="151"/>
-      <c r="AL20" s="153"/>
-      <c r="AM20" s="153"/>
-      <c r="AN20" s="153"/>
-      <c r="AO20" s="153"/>
-      <c r="AP20" s="152"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="151"/>
-      <c r="S21" s="152"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="153"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="152"/>
-      <c r="Z21" s="151"/>
-      <c r="AA21" s="153"/>
-      <c r="AB21" s="153"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="153"/>
-      <c r="AF21" s="153"/>
-      <c r="AG21" s="152"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="153"/>
-      <c r="AJ21" s="152"/>
-      <c r="AK21" s="151"/>
-      <c r="AL21" s="153"/>
-      <c r="AM21" s="153"/>
-      <c r="AN21" s="153"/>
-      <c r="AO21" s="153"/>
-      <c r="AP21" s="152"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="151"/>
-      <c r="S22" s="152"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="153"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="152"/>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="153"/>
-      <c r="AB22" s="153"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="153"/>
-      <c r="AF22" s="153"/>
-      <c r="AG22" s="152"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="153"/>
-      <c r="AJ22" s="152"/>
-      <c r="AK22" s="151"/>
-      <c r="AL22" s="153"/>
-      <c r="AM22" s="153"/>
-      <c r="AN22" s="153"/>
-      <c r="AO22" s="153"/>
-      <c r="AP22" s="152"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="151"/>
-      <c r="S23" s="152"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="153"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="152"/>
-      <c r="Z23" s="151"/>
-      <c r="AA23" s="153"/>
-      <c r="AB23" s="153"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="153"/>
-      <c r="AF23" s="153"/>
-      <c r="AG23" s="152"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="153"/>
-      <c r="AJ23" s="152"/>
-      <c r="AK23" s="151"/>
-      <c r="AL23" s="153"/>
-      <c r="AM23" s="153"/>
-      <c r="AN23" s="153"/>
-      <c r="AO23" s="153"/>
-      <c r="AP23" s="152"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="153"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
-      <c r="Y24" s="152"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="153"/>
-      <c r="AB24" s="153"/>
-      <c r="AC24" s="153"/>
-      <c r="AD24" s="153"/>
-      <c r="AE24" s="153"/>
-      <c r="AF24" s="153"/>
-      <c r="AG24" s="152"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="153"/>
-      <c r="AJ24" s="152"/>
-      <c r="AK24" s="151"/>
-      <c r="AL24" s="153"/>
-      <c r="AM24" s="153"/>
-      <c r="AN24" s="153"/>
-      <c r="AO24" s="153"/>
-      <c r="AP24" s="152"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="152"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="152"/>
-      <c r="T25" s="151"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="153"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="152"/>
-      <c r="Z25" s="151"/>
-      <c r="AA25" s="153"/>
-      <c r="AB25" s="153"/>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="153"/>
-      <c r="AF25" s="153"/>
-      <c r="AG25" s="152"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="153"/>
-      <c r="AJ25" s="152"/>
-      <c r="AK25" s="151"/>
-      <c r="AL25" s="153"/>
-      <c r="AM25" s="153"/>
-      <c r="AN25" s="153"/>
-      <c r="AO25" s="153"/>
-      <c r="AP25" s="152"/>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="152"/>
-      <c r="T26" s="151"/>
-      <c r="U26" s="153"/>
-      <c r="V26" s="153"/>
-      <c r="W26" s="153"/>
-      <c r="X26" s="153"/>
-      <c r="Y26" s="152"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="153"/>
-      <c r="AB26" s="153"/>
-      <c r="AC26" s="153"/>
-      <c r="AD26" s="153"/>
-      <c r="AE26" s="153"/>
-      <c r="AF26" s="153"/>
-      <c r="AG26" s="152"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="153"/>
-      <c r="AJ26" s="152"/>
-      <c r="AK26" s="151"/>
-      <c r="AL26" s="153"/>
-      <c r="AM26" s="153"/>
-      <c r="AN26" s="153"/>
-      <c r="AO26" s="153"/>
-      <c r="AP26" s="152"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="152"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="153"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="152"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="153"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="153"/>
-      <c r="AG27" s="152"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="153"/>
-      <c r="AJ27" s="152"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="153"/>
-      <c r="AM27" s="153"/>
-      <c r="AN27" s="153"/>
-      <c r="AO27" s="153"/>
-      <c r="AP27" s="152"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="152"/>
-      <c r="R28" s="151"/>
-      <c r="S28" s="152"/>
-      <c r="T28" s="151"/>
-      <c r="U28" s="153"/>
-      <c r="V28" s="153"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="152"/>
-      <c r="Z28" s="151"/>
-      <c r="AA28" s="153"/>
-      <c r="AB28" s="153"/>
-      <c r="AC28" s="153"/>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="153"/>
-      <c r="AF28" s="153"/>
-      <c r="AG28" s="152"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="153"/>
-      <c r="AJ28" s="152"/>
-      <c r="AK28" s="151"/>
-      <c r="AL28" s="153"/>
-      <c r="AM28" s="153"/>
-      <c r="AN28" s="153"/>
-      <c r="AO28" s="153"/>
-      <c r="AP28" s="152"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="152"/>
-      <c r="R29" s="151"/>
-      <c r="S29" s="152"/>
-      <c r="T29" s="151"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="153"/>
-      <c r="W29" s="153"/>
-      <c r="X29" s="153"/>
-      <c r="Y29" s="152"/>
-      <c r="Z29" s="151"/>
-      <c r="AA29" s="153"/>
-      <c r="AB29" s="153"/>
-      <c r="AC29" s="153"/>
-      <c r="AD29" s="153"/>
-      <c r="AE29" s="153"/>
-      <c r="AF29" s="153"/>
-      <c r="AG29" s="152"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="153"/>
-      <c r="AJ29" s="152"/>
-      <c r="AK29" s="151"/>
-      <c r="AL29" s="153"/>
-      <c r="AM29" s="153"/>
-      <c r="AN29" s="153"/>
-      <c r="AO29" s="153"/>
-      <c r="AP29" s="152"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="76"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="76"/>
-      <c r="AA30" s="76"/>
-      <c r="AB30" s="76"/>
-      <c r="AC30" s="76"/>
-      <c r="AD30" s="76"/>
-      <c r="AE30" s="76"/>
-      <c r="AF30" s="76"/>
-      <c r="AG30" s="76"/>
-      <c r="AH30" s="76"/>
-      <c r="AI30" s="76"/>
-      <c r="AJ30" s="76"/>
-      <c r="AK30" s="76"/>
-      <c r="AL30" s="76"/>
-      <c r="AM30" s="76"/>
-      <c r="AN30" s="76"/>
-      <c r="AO30" s="37"/>
-      <c r="AP30" s="37"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="25"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="25"/>
-      <c r="AJ31" s="25"/>
-      <c r="AK31" s="25"/>
-      <c r="AL31" s="25"/>
-      <c r="AM31" s="25"/>
-      <c r="AN31" s="25"/>
-      <c r="AO31" s="7"/>
-      <c r="AP31" s="7"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="25"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="25"/>
-      <c r="AM32" s="25"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="25"/>
-      <c r="AJ33" s="25"/>
-      <c r="AK33" s="25"/>
-      <c r="AL33" s="25"/>
-      <c r="AM33" s="25"/>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
-      <c r="AD34" s="25"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="25"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="25"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="25"/>
-      <c r="AL34" s="25"/>
-      <c r="AM34" s="25"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="7"/>
-      <c r="AP34" s="7"/>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
-      <c r="AD35" s="25"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="25"/>
-      <c r="AG35" s="25"/>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="25"/>
-      <c r="AK35" s="25"/>
-      <c r="AL35" s="25"/>
-      <c r="AM35" s="25"/>
-      <c r="AN35" s="25"/>
-      <c r="AO35" s="7"/>
-      <c r="AP35" s="7"/>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="25"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="25"/>
-      <c r="AJ36" s="25"/>
-      <c r="AK36" s="25"/>
-      <c r="AL36" s="25"/>
-      <c r="AM36" s="25"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="7"/>
-      <c r="AP36" s="7"/>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="25"/>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="25"/>
-      <c r="AL37" s="25"/>
-      <c r="AM37" s="25"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="7"/>
-      <c r="AP37" s="7"/>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-      <c r="AI38" s="25"/>
-      <c r="AJ38" s="25"/>
-      <c r="AK38" s="25"/>
-      <c r="AL38" s="25"/>
-      <c r="AM38" s="25"/>
-      <c r="AN38" s="25"/>
-      <c r="AO38" s="7"/>
-      <c r="AP38" s="7"/>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="25"/>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="25"/>
-      <c r="AM39" s="25"/>
-      <c r="AN39" s="25"/>
-      <c r="AO39" s="7"/>
-      <c r="AP39" s="7"/>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A40" s="7"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="25"/>
-      <c r="AG40" s="25"/>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="25"/>
-      <c r="AJ40" s="25"/>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="25"/>
-      <c r="AN40" s="25"/>
-      <c r="AO40" s="7"/>
-      <c r="AP40" s="7"/>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A41" s="7"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="25"/>
-      <c r="AD41" s="25"/>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="25"/>
-      <c r="AG41" s="25"/>
-      <c r="AH41" s="25"/>
-      <c r="AI41" s="25"/>
-      <c r="AJ41" s="25"/>
-      <c r="AK41" s="25"/>
-      <c r="AL41" s="25"/>
-      <c r="AM41" s="25"/>
-      <c r="AN41" s="25"/>
-      <c r="AO41" s="7"/>
-      <c r="AP41" s="7"/>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="25"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="25"/>
-      <c r="AJ42" s="25"/>
-      <c r="AK42" s="25"/>
-      <c r="AL42" s="25"/>
-      <c r="AM42" s="25"/>
-      <c r="AN42" s="25"/>
-      <c r="AO42" s="7"/>
-      <c r="AP42" s="7"/>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A43" s="7"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="25"/>
-      <c r="AJ43" s="25"/>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="25"/>
-      <c r="AM43" s="25"/>
-      <c r="AN43" s="25"/>
-      <c r="AO43" s="7"/>
-      <c r="AP43" s="7"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="194">
+  <mergeCells count="50">
+    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="AK7:AP8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -7742,8 +6994,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="D7:E8"/>
     <mergeCell ref="F7:J8"/>
-    <mergeCell ref="K7:Q8"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="AK9:AP9"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
@@ -7760,167 +7010,22 @@
     <mergeCell ref="T7:Y8"/>
     <mergeCell ref="Z7:AG8"/>
     <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="AK7:AP8"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="AK16:AP16"/>
-    <mergeCell ref="AK17:AP17"/>
-    <mergeCell ref="AK18:AP18"/>
-    <mergeCell ref="AK19:AP19"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="K10:Q10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK25:AP25"/>
-    <mergeCell ref="AK26:AP26"/>
-    <mergeCell ref="AK27:AP27"/>
-    <mergeCell ref="AK28:AP28"/>
-    <mergeCell ref="AK29:AP29"/>
-    <mergeCell ref="AK20:AP20"/>
-    <mergeCell ref="AK21:AP21"/>
-    <mergeCell ref="AK22:AP22"/>
-    <mergeCell ref="AK23:AP23"/>
-    <mergeCell ref="AK24:AP24"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="Z17:AG17"/>
-    <mergeCell ref="Z18:AG18"/>
-    <mergeCell ref="Z19:AG19"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="Z27:AG27"/>
-    <mergeCell ref="Z28:AG28"/>
-    <mergeCell ref="Z29:AG29"/>
-    <mergeCell ref="Z20:AG20"/>
-    <mergeCell ref="Z21:AG21"/>
-    <mergeCell ref="Z22:AG22"/>
-    <mergeCell ref="Z23:AG23"/>
-    <mergeCell ref="Z24:AG24"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
